--- a/Projects/Class Finder/class finder data files/wenesday and friday.xlsx
+++ b/Projects/Class Finder/class finder data files/wenesday and friday.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Projects\Class Finder\class finder data files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="15915" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="121">
   <si>
     <t>FIRST YEAR  TIME TABLE</t>
   </si>
@@ -341,19 +346,49 @@
   </si>
   <si>
     <t>EE 498</t>
+  </si>
+  <si>
+    <t>program_name</t>
+  </si>
+  <si>
+    <t>Computer Engineering</t>
+  </si>
+  <si>
+    <t>year_name</t>
+  </si>
+  <si>
+    <t>Third year</t>
+  </si>
+  <si>
+    <t>day_name</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>room_name</t>
+  </si>
+  <si>
+    <t>course _code</t>
+  </si>
+  <si>
+    <t>lecturer_name</t>
+  </si>
+  <si>
+    <t>Keelson Eliel</t>
+  </si>
+  <si>
+    <t>Adjaidoo Samuella Theresa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,346 +404,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -716,251 +421,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,61 +441,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1290,36 +709,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149:H152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="4:10">
+    <row r="4" spans="1:10">
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1333,54 +752,54 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="4:10">
+    <row r="5" spans="1:10">
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
+      <c r="G5" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H5" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
+      <c r="G6" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H6" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
+      <c r="G7" s="2">
+        <v>0.625</v>
+      </c>
       <c r="H7" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.746527777777778</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+        <v>0.74652777777777801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="4:10">
+    <row r="9" spans="1:10">
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1394,40 +813,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="4:10">
+    <row r="10" spans="1:10">
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
+      <c r="G10" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H10" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.579861111111111</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10">
+        <v>0.57986111111111105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
+      <c r="G11" s="2">
+        <v>0.625</v>
+      </c>
       <c r="H11" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.704861111111111</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+        <v>0.70486111111111105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="4:10">
+    <row r="13" spans="1:10">
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1441,40 +860,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="4:10">
+    <row r="14" spans="1:10">
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
+      <c r="G14" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H14" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
+      <c r="G15" s="2">
+        <v>0.70833333333333304</v>
+      </c>
       <c r="H15" s="2">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.788194444444444</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>0.78819444444444398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="4:10">
+    <row r="17" spans="1:10">
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1488,32 +907,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="4:10">
+    <row r="18" spans="1:10">
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
       </c>
+      <c r="G18" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H18" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:10">
       <c r="B20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="4:10">
+    <row r="21" spans="1:10">
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1527,26 +946,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="4:10">
+    <row r="22" spans="1:10">
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
       </c>
+      <c r="G22" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H22" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.579861111111111</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
+        <v>0.57986111111111105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="B23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="4:10">
+    <row r="24" spans="1:10">
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1560,54 +979,54 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="4:10">
+    <row r="25" spans="1:10">
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="F25" t="s">
         <v>30</v>
       </c>
+      <c r="G25" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H25" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="D26" t="s">
         <v>31</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
+      <c r="G26" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H26" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="D27" t="s">
         <v>32</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
       </c>
+      <c r="G27" s="2">
+        <v>0.625</v>
+      </c>
       <c r="H27" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.663194444444444</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
+        <v>0.66319444444444398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="B28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="4:10">
+    <row r="29" spans="1:10">
       <c r="D29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1621,40 +1040,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="4:10">
+    <row r="30" spans="1:10">
       <c r="D30" t="s">
         <v>32</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
       </c>
+      <c r="G30" s="2">
+        <v>0.375</v>
+      </c>
       <c r="H30" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="31" spans="4:10">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="D31" t="s">
         <v>34</v>
       </c>
       <c r="F31" t="s">
         <v>35</v>
       </c>
+      <c r="G31" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H31" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="B32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="4:10">
+    <row r="33" spans="1:10">
       <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1668,36 +1087,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="4:10">
+    <row r="34" spans="1:10">
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
         <v>25</v>
       </c>
+      <c r="G34" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H34" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:10">
       <c r="B37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="4:10">
+    <row r="38" spans="1:10">
       <c r="D38" s="1" t="s">
         <v>3</v>
       </c>
@@ -1711,1376 +1130,1435 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="4:10">
+    <row r="39" spans="1:10">
       <c r="D39" t="s">
         <v>37</v>
       </c>
       <c r="F39" t="s">
         <v>28</v>
       </c>
+      <c r="G39" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H39" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="40" spans="4:10">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="D40" t="s">
         <v>38</v>
       </c>
       <c r="F40" t="s">
         <v>39</v>
       </c>
+      <c r="G40" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H40" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="B41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="4:10">
+    <row r="42" spans="1:10">
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G42" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="D43" t="s">
         <v>40</v>
       </c>
       <c r="F43" t="s">
         <v>41</v>
       </c>
+      <c r="G43" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H43" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="44" spans="4:10">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="D44" t="s">
         <v>42</v>
       </c>
       <c r="F44" t="s">
         <v>41</v>
       </c>
+      <c r="G44" s="2">
+        <v>0.625</v>
+      </c>
       <c r="H44" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0.704861111111111</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
+        <v>0.70486111111111105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="B45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="4:10">
+    <row r="46" spans="1:10">
       <c r="D46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G46" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="D47" t="s">
         <v>37</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
       </c>
+      <c r="G47" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H47" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="48" spans="4:10">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="D48" t="s">
         <v>43</v>
       </c>
       <c r="F48" t="s">
         <v>44</v>
       </c>
+      <c r="G48" s="2">
+        <v>0.625</v>
+      </c>
       <c r="H48" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0.704861111111111</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
+        <v>0.70486111111111105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="B49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="4:10">
+    <row r="50" spans="1:8">
       <c r="D50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G50" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="D51" t="s">
         <v>45</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
       </c>
+      <c r="G51" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H51" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="52" spans="4:10">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="D52" t="s">
         <v>46</v>
       </c>
       <c r="F52" t="s">
         <v>33</v>
       </c>
+      <c r="G52" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H52" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0.746527777777778</v>
-      </c>
-    </row>
-    <row r="53" spans="4:10">
+        <v>0.74652777777777801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="D53" t="s">
         <v>38</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
+      <c r="G53" s="2">
+        <v>0.75</v>
+      </c>
       <c r="H53" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0.788194444444444</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>0.78819444444444398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:8">
       <c r="B55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="4:10">
+    <row r="56" spans="1:8">
       <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G56" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="D57" t="s">
         <v>47</v>
       </c>
       <c r="F57" t="s">
         <v>35</v>
       </c>
+      <c r="G57" s="2">
+        <v>0.375</v>
+      </c>
       <c r="H57" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="58" spans="4:10">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="D58" t="s">
         <v>48</v>
       </c>
       <c r="F58" t="s">
         <v>41</v>
       </c>
+      <c r="G58" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H58" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J58" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="B59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="4:10">
+    <row r="60" spans="1:8">
       <c r="D60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G60" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="D61" t="s">
         <v>49</v>
       </c>
       <c r="F61" t="s">
         <v>33</v>
       </c>
+      <c r="G61" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H61" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J61" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="B62" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="4:10">
+    <row r="63" spans="1:8">
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G63" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="D64" t="s">
         <v>50</v>
       </c>
       <c r="F64" t="s">
         <v>51</v>
       </c>
+      <c r="G64" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H64" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="B65" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="4:10">
+    <row r="66" spans="1:10">
       <c r="D66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G66" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="1:10">
       <c r="B70" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="4:10">
+    <row r="71" spans="1:10">
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
       <c r="D71" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
+      </c>
+      <c r="E71" t="s">
+        <v>118</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>4</v>
+        <v>116</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="4:10">
+        <v>114</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" t="s">
+        <v>112</v>
+      </c>
       <c r="D72" t="s">
         <v>53</v>
       </c>
+      <c r="E72" t="s">
+        <v>119</v>
+      </c>
       <c r="F72" t="s">
         <v>51</v>
       </c>
+      <c r="G72" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H72" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J72" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="73" spans="4:10">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" t="s">
+        <v>112</v>
+      </c>
       <c r="D73" t="s">
         <v>54</v>
       </c>
+      <c r="E73" t="s">
+        <v>120</v>
+      </c>
       <c r="F73" t="s">
         <v>55</v>
       </c>
+      <c r="G73" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H73" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J73" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="74" spans="4:10">
+        <v>0.62152777777777801</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0.62152777777777801</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" t="s">
+        <v>112</v>
+      </c>
       <c r="D74" t="s">
         <v>56</v>
       </c>
+      <c r="E74" t="s">
+        <v>119</v>
+      </c>
       <c r="F74" t="s">
         <v>33</v>
       </c>
+      <c r="G74" s="2">
+        <v>0.625</v>
+      </c>
       <c r="H74" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="J74" s="2">
-        <v>0.704861111111111</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="B75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="4:10">
+    <row r="76" spans="1:10">
       <c r="D76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G76" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="D77" t="s">
         <v>57</v>
       </c>
       <c r="F77" t="s">
         <v>35</v>
       </c>
+      <c r="G77" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H77" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J77" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="78" spans="4:10">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="D78" t="s">
         <v>58</v>
       </c>
       <c r="F78" t="s">
         <v>41</v>
       </c>
+      <c r="G78" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H78" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J78" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="79" spans="4:10">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="D79" t="s">
         <v>59</v>
       </c>
       <c r="F79" t="s">
         <v>60</v>
       </c>
+      <c r="G79" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H79" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J79" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="B80" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="4:10">
+    <row r="81" spans="1:8">
       <c r="D81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G81" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="D82" t="s">
         <v>61</v>
       </c>
       <c r="F82" t="s">
         <v>33</v>
       </c>
+      <c r="G82" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H82" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J82" s="2">
-        <v>0.475694444444444</v>
-      </c>
-    </row>
-    <row r="83" spans="4:10">
+        <v>0.47569444444444398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="D83" t="s">
         <v>62</v>
       </c>
       <c r="F83" t="s">
         <v>25</v>
       </c>
+      <c r="G83" s="2">
+        <v>0.47916666666666702</v>
+      </c>
       <c r="H83" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="J83" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="84" spans="4:10">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="D84" t="s">
         <v>63</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
       </c>
+      <c r="G84" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H84" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J84" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="B85" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="4:10">
+    <row r="86" spans="1:8">
       <c r="D86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G86" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="D87" t="s">
         <v>64</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
       </c>
+      <c r="G87" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H87" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J87" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="88" spans="4:10">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="D88" t="s">
         <v>65</v>
       </c>
       <c r="F88" t="s">
         <v>66</v>
       </c>
+      <c r="G88" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H88" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J88" s="2">
-        <v>0.475694444444444</v>
-      </c>
-    </row>
-    <row r="89" spans="4:10">
+        <v>0.47569444444444398</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="D89" t="s">
         <v>67</v>
       </c>
       <c r="F89" t="s">
         <v>35</v>
       </c>
+      <c r="G89" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H89" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J89" s="2">
-        <v>0.579861111111111</v>
-      </c>
-    </row>
-    <row r="90" spans="4:10">
+        <v>0.57986111111111105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="D90" t="s">
         <v>68</v>
       </c>
       <c r="F90" t="s">
         <v>28</v>
       </c>
+      <c r="G90" s="2">
+        <v>0.625</v>
+      </c>
       <c r="H90" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="J90" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="91" spans="4:10">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="D91" t="s">
         <v>69</v>
       </c>
       <c r="F91" t="s">
         <v>39</v>
       </c>
+      <c r="G91" s="2">
+        <v>0.70833333333333304</v>
+      </c>
       <c r="H91" s="2">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J91" s="2">
-        <v>0.746527777777778</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>0.74652777777777801</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="1:8">
       <c r="B93" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="4:10">
+    <row r="94" spans="1:8">
       <c r="D94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G94" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="D95" t="s">
         <v>70</v>
       </c>
       <c r="F95" t="s">
         <v>71</v>
       </c>
+      <c r="G95" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H95" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J95" s="2">
-        <v>0.371527777777778</v>
-      </c>
-    </row>
-    <row r="96" spans="4:10">
+        <v>0.37152777777777801</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="D96" t="s">
         <v>72</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
       </c>
+      <c r="G96" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H96" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J96" s="2">
-        <v>0.579861111111111</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
+        <v>0.57986111111111105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="B97" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="4:10">
+    <row r="98" spans="1:8">
       <c r="D98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G98" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="D99" t="s">
         <v>57</v>
       </c>
       <c r="F99" t="s">
         <v>51</v>
       </c>
+      <c r="G99" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H99" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J99" s="2">
-        <v>0.371527777777778</v>
-      </c>
-    </row>
-    <row r="100" spans="4:10">
+        <v>0.37152777777777801</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="D100" t="s">
         <v>73</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
       </c>
+      <c r="G100" s="2">
+        <v>0.47916666666666702</v>
+      </c>
       <c r="H100" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="J100" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="B101" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="4:10">
+    <row r="102" spans="1:8">
       <c r="D102" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G102" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="D103" t="s">
         <v>74</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
       </c>
+      <c r="G103" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H103" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J103" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="104" spans="4:10">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="D104" t="s">
         <v>62</v>
       </c>
       <c r="F104" t="s">
         <v>55</v>
       </c>
+      <c r="G104" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H104" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J104" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="B105" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="4:10">
+    <row r="106" spans="1:8">
       <c r="D106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G106" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="D107" t="s">
         <v>75</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
       </c>
+      <c r="G107" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H107" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J107" s="2">
-        <v>0.371527777777778</v>
-      </c>
-    </row>
-    <row r="108" spans="4:10">
+        <v>0.37152777777777801</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="D108" t="s">
         <v>76</v>
       </c>
       <c r="F108" t="s">
         <v>51</v>
       </c>
+      <c r="G108" s="2">
+        <v>0.375</v>
+      </c>
       <c r="H108" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="J108" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="109" spans="4:10">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="D109" t="s">
         <v>72</v>
       </c>
       <c r="F109" t="s">
         <v>12</v>
       </c>
+      <c r="G109" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H109" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J109" s="2">
-        <v>0.579861111111111</v>
-      </c>
-    </row>
-    <row r="110" spans="4:10">
+        <v>0.57986111111111105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="D110" t="s">
         <v>69</v>
       </c>
       <c r="F110" t="s">
         <v>39</v>
       </c>
+      <c r="G110" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H110" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J110" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:8">
       <c r="B113" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="4:10">
+    <row r="114" spans="2:8">
       <c r="D114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G114" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
       <c r="D115" t="s">
         <v>78</v>
       </c>
       <c r="F115" t="s">
         <v>15</v>
       </c>
+      <c r="G115" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H115" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J115" s="2">
-        <v>0.371527777777778</v>
-      </c>
-    </row>
-    <row r="116" spans="4:10">
+        <v>0.37152777777777801</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
       <c r="D116" t="s">
         <v>79</v>
       </c>
       <c r="F116">
         <v>304</v>
       </c>
+      <c r="G116" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H116" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J116" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="117" spans="4:10">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
       <c r="D117" t="s">
         <v>78</v>
       </c>
       <c r="F117" t="s">
         <v>80</v>
       </c>
+      <c r="G117" s="2">
+        <v>0.75</v>
+      </c>
       <c r="H117" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J117" s="2">
-        <v>0.788194444444444</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
+        <v>0.78819444444444398</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
       <c r="B118" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="4:10">
+    <row r="119" spans="2:8">
       <c r="D119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H119" t="s">
-        <v>5</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="4:10">
+      <c r="G119" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
       <c r="D120" t="s">
         <v>81</v>
       </c>
       <c r="F120" t="s">
         <v>82</v>
       </c>
+      <c r="G120" s="2">
+        <v>0.375</v>
+      </c>
       <c r="H120" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="J120" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="121" spans="4:10">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
       <c r="D121" t="s">
         <v>83</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
       </c>
+      <c r="G121" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H121" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J121" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="122" spans="4:10">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
       <c r="D122" t="s">
         <v>84</v>
       </c>
       <c r="F122" t="s">
         <v>85</v>
       </c>
+      <c r="G122" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H122" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J122" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="123" spans="4:10">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
       <c r="D123" t="s">
         <v>86</v>
       </c>
       <c r="F123" t="s">
         <v>66</v>
       </c>
+      <c r="G123" s="2">
+        <v>0.625</v>
+      </c>
       <c r="H123" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="J123" s="2">
-        <v>0.663194444444444</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
+        <v>0.66319444444444398</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8">
       <c r="B124" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="4:10">
+    <row r="125" spans="2:8">
       <c r="D125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G125" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H125" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8">
       <c r="D126" t="s">
         <v>87</v>
       </c>
       <c r="F126" t="s">
         <v>28</v>
       </c>
+      <c r="G126" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H126" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J126" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="127" spans="4:10">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
       <c r="D127" t="s">
         <v>88</v>
       </c>
       <c r="F127" t="s">
         <v>89</v>
       </c>
+      <c r="G127" s="2">
+        <v>0.625</v>
+      </c>
       <c r="H127" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="J127" s="2">
-        <v>0.704861111111111</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
+        <v>0.70486111111111105</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
       <c r="B128" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="4:10">
+    <row r="129" spans="1:8">
       <c r="D129" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G129" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H129" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="D130" t="s">
         <v>90</v>
       </c>
       <c r="F130" t="s">
         <v>71</v>
       </c>
+      <c r="G130" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H130" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J130" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="131" spans="4:10">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="D131" t="s">
         <v>91</v>
       </c>
       <c r="F131" t="s">
         <v>60</v>
       </c>
+      <c r="G131" s="2">
+        <v>0.625</v>
+      </c>
       <c r="H131" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="J131" s="2">
-        <v>0.704861111111111</v>
-      </c>
-    </row>
-    <row r="132" spans="4:10">
+        <v>0.70486111111111105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="D132" t="s">
         <v>92</v>
       </c>
       <c r="F132" t="s">
         <v>60</v>
       </c>
+      <c r="G132" s="2">
+        <v>0.70833333333333304</v>
+      </c>
       <c r="H132" s="2">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="J132" s="2">
-        <v>0.746527777777778</v>
-      </c>
-    </row>
-    <row r="133" spans="4:10">
+        <v>0.74652777777777801</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="D133" t="s">
         <v>93</v>
       </c>
       <c r="F133" t="s">
         <v>39</v>
       </c>
+      <c r="G133" s="2">
+        <v>0.75</v>
+      </c>
       <c r="H133" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="J133" s="2">
-        <v>0.788194444444444</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>0.78819444444444398</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="1:8">
       <c r="B135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="4:10">
+    <row r="136" spans="1:8">
       <c r="D136" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G136" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H136" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="D137" t="s">
         <v>94</v>
       </c>
       <c r="F137" t="s">
         <v>66</v>
       </c>
+      <c r="G137" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H137" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J137" s="2">
-        <v>0.371527777777778</v>
-      </c>
-    </row>
-    <row r="138" spans="4:10">
+        <v>0.37152777777777801</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="D138" t="s">
         <v>95</v>
       </c>
       <c r="F138" t="s">
         <v>33</v>
       </c>
+      <c r="G138" s="2">
+        <v>0.375</v>
+      </c>
       <c r="H138" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="J138" s="2">
-        <v>0.475694444444444</v>
-      </c>
-    </row>
-    <row r="139" spans="4:10">
+        <v>0.47569444444444398</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="D139" t="s">
         <v>96</v>
       </c>
       <c r="F139" t="s">
         <v>15</v>
       </c>
+      <c r="G139" s="2">
+        <v>0.47916666666666702</v>
+      </c>
       <c r="H139" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="J139" s="2">
-        <v>0.517361111111111</v>
-      </c>
-    </row>
-    <row r="140" spans="4:10">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="D140" t="s">
         <v>97</v>
       </c>
       <c r="F140" t="s">
         <v>98</v>
       </c>
+      <c r="G140" s="2">
+        <v>0.58333333333333304</v>
+      </c>
       <c r="H140" s="2">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J140" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="141" spans="4:10">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="D141" t="s">
         <v>96</v>
       </c>
       <c r="F141" t="s">
         <v>98</v>
       </c>
+      <c r="G141" s="2">
+        <v>0.625</v>
+      </c>
       <c r="H141" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="J141" s="2">
-        <v>0.663194444444444</v>
-      </c>
-    </row>
-    <row r="142" spans="4:10">
+        <v>0.66319444444444398</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="D142" t="s">
         <v>99</v>
       </c>
       <c r="F142" t="s">
         <v>71</v>
       </c>
+      <c r="G142" s="2">
+        <v>0.66666666666666696</v>
+      </c>
       <c r="H142" s="2">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J142" s="2">
-        <v>0.746527777777778</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
+        <v>0.74652777777777801</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="B143" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="4:10">
+    <row r="144" spans="1:8">
       <c r="D144" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G144" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H144" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8">
       <c r="D145" t="s">
         <v>100</v>
       </c>
       <c r="F145" t="s">
         <v>101</v>
       </c>
+      <c r="G145" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H145" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J145" s="2">
-        <v>0.475694444444444</v>
-      </c>
-    </row>
-    <row r="146" spans="4:10">
+        <v>0.47569444444444398</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
       <c r="D146" t="s">
         <v>102</v>
       </c>
       <c r="F146" t="s">
         <v>30</v>
       </c>
+      <c r="G146" s="2">
+        <v>0.58333333333333304</v>
+      </c>
       <c r="H146" s="2">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J146" s="2">
-        <v>0.663194444444444</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
+        <v>0.66319444444444398</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
       <c r="B147" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="4:10">
+    <row r="148" spans="2:8">
       <c r="D148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G148" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H148" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="4:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
       <c r="D149" t="s">
         <v>103</v>
       </c>
       <c r="F149" t="s">
         <v>104</v>
       </c>
+      <c r="G149" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H149" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J149" s="2">
-        <v>0.413194444444444</v>
-      </c>
-    </row>
-    <row r="150" spans="4:10">
+        <v>0.41319444444444398</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8">
       <c r="D150" t="s">
         <v>105</v>
       </c>
       <c r="F150" t="s">
         <v>82</v>
       </c>
+      <c r="G150" s="2">
+        <v>0.4375</v>
+      </c>
       <c r="H150" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="J150" s="2">
-        <v>0.475694444444444</v>
-      </c>
-    </row>
-    <row r="151" spans="4:10">
+        <v>0.47569444444444398</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8">
       <c r="D151" t="s">
         <v>106</v>
       </c>
       <c r="F151">
         <v>303</v>
       </c>
+      <c r="G151" s="2">
+        <v>0.54166666666666696</v>
+      </c>
       <c r="H151" s="2">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="J151" s="2">
-        <v>0.621527777777778</v>
-      </c>
-    </row>
-    <row r="152" spans="4:10">
+        <v>0.62152777777777801</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
       <c r="D152" t="s">
         <v>107</v>
       </c>
       <c r="F152" t="s">
         <v>10</v>
       </c>
+      <c r="G152" s="2">
+        <v>0.625</v>
+      </c>
       <c r="H152" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="J152" s="2">
-        <v>0.704861111111111</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2">
+        <v>0.70486111111111105</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
       <c r="B153" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="4:10">
+    <row r="154" spans="2:8">
       <c r="D154" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H154" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="4:10">
+      <c r="G154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8">
       <c r="D155" t="s">
         <v>94</v>
       </c>
       <c r="F155" t="s">
         <v>66</v>
       </c>
+      <c r="G155" s="2">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H155" s="2">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="J155" s="2">
-        <v>0.371527777777778</v>
-      </c>
-    </row>
-    <row r="156" spans="4:10">
+        <v>0.37152777777777801</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8">
       <c r="D156" t="s">
         <v>108</v>
       </c>
       <c r="F156" t="s">
         <v>101</v>
       </c>
+      <c r="G156" s="2">
+        <v>0.47916666666666702</v>
+      </c>
       <c r="H156" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="J156" s="2">
-        <v>0.663194444444444</v>
+        <v>0.66319444444444398</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>